--- a/excel/PrimaryDebrisConfig.xlsx
+++ b/excel/PrimaryDebrisConfig.xlsx
@@ -100,34 +100,34 @@
     <t>初级至尊星兽拼图10</t>
   </si>
   <si>
-    <t>common/items/初级拼图1</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图2</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图3</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图4</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图5</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图6</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图7</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图8</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图9</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图10</t>
+    <t>icon/初级拼图1</t>
+  </si>
+  <si>
+    <t>icon/初级拼图2</t>
+  </si>
+  <si>
+    <t>icon/初级拼图3</t>
+  </si>
+  <si>
+    <t>icon/初级拼图4</t>
+  </si>
+  <si>
+    <t>icon/初级拼图5</t>
+  </si>
+  <si>
+    <t>icon/初级拼图6</t>
+  </si>
+  <si>
+    <t>icon/初级拼图7</t>
+  </si>
+  <si>
+    <t>icon/初级拼图8</t>
+  </si>
+  <si>
+    <t>icon/初级拼图9</t>
+  </si>
+  <si>
+    <t>icon/初级拼图10</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/excel/PrimaryDebrisConfig.xlsx
+++ b/excel/PrimaryDebrisConfig.xlsx
@@ -516,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
